--- a/Data/Data Cleaning/populaitongrowthrate.XLSX
+++ b/Data/Data Cleaning/populaitongrowthrate.XLSX
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nayabkhurshaidi/Documents/GitHub/Nayab Khurshaidi/Data/Data Cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A996E9D5-8CC3-0F4D-B78C-C393BE557240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307FBC76-5092-5242-95B8-2F94FB20743C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30880" yWindow="500" windowWidth="29300" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
